--- a/collusion_1960-1980.xlsx
+++ b/collusion_1960-1980.xlsx
@@ -55,6 +55,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -72,7 +73,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -83,6 +84,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
         <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF37B70"/>
+        <bgColor rgb="FFFF99CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -120,7 +133,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -130,6 +143,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -142,6 +163,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFF37B70"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -153,12 +234,13 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="Q17" activeCellId="0" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="0" width="10.38"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -190,71 +272,103 @@
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="F2" s="0" t="n">
-        <v>0.3684</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>0.4736</v>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4" t="n">
+        <v>-0.3684</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4" t="n">
+        <v>-0.4736</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="B3" s="3"/>
       <c r="C3" s="1"/>
-      <c r="E3" s="0" t="n">
-        <v>0.7333</v>
-      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4" t="n">
+        <v>-0.7333</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
       <c r="D4" s="1"/>
-      <c r="G4" s="0" t="n">
-        <v>0.421</v>
-      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4" t="n">
+        <v>-0.421</v>
+      </c>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>0.1333</v>
-      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4" t="n">
+        <v>-0.1333</v>
+      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="1"/>
-      <c r="H5" s="0" t="n">
-        <v>0.5</v>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0.1052</v>
-      </c>
+      <c r="B6" s="4" t="n">
+        <v>-0.1052</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="1"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>0.4736</v>
-      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4" t="n">
+        <v>-0.4736</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="1"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>0.5789</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0.15</v>
-      </c>
+      <c r="B8" s="4" t="n">
+        <v>-0.5789</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="1"/>
     </row>
   </sheetData>
